--- a/biology/Botanique/Alka_(cultivar_de_pommier)/Alka_(cultivar_de_pommier).xlsx
+++ b/biology/Botanique/Alka_(cultivar_de_pommier)/Alka_(cultivar_de_pommier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alka est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Warsaw Agricultural University, Pologne
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Couleur de la peau: rouge.</t>
         </is>
@@ -598,7 +616,9 @@
           <t>Résistances et susceptibilités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tavelure: résistant.</t>
         </is>
@@ -629,6 +649,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
